--- a/resources/testdata/ResellerTests.xlsx
+++ b/resources/testdata/ResellerTests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>Type-2</t>
   </si>
   <si>
-    <t>"English (US)"</t>
-  </si>
-  <si>
     <t>commLang</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>autoTestReseller1</t>
+  </si>
+  <si>
+    <t>English (US)</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,25 +513,25 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -545,25 +545,25 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -575,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -589,7 +589,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -600,7 +600,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/resources/testdata/ResellerTests.xlsx
+++ b/resources/testdata/ResellerTests.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>TCID</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>English (US)</t>
+  </si>
+  <si>
+    <t>userIDMPassword</t>
+  </si>
+  <si>
+    <t>Independent12#</t>
+  </si>
+  <si>
+    <t>resNameSuf</t>
+  </si>
+  <si>
+    <t>&amp; brother's</t>
   </si>
 </sst>
 </file>
@@ -490,10 +502,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +514,7 @@
     <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -533,8 +545,14 @@
       <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -564,6 +582,12 @@
       </c>
       <c r="J2" t="s">
         <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/resources/testdata/ResellerTests.xlsx
+++ b/resources/testdata/ResellerTests.xlsx
@@ -8,15 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
-    <sheet name="addReseller" sheetId="2" r:id="rId2"/>
-    <sheet name="searchReseller" sheetId="3" r:id="rId3"/>
+    <sheet name="searchResellerID" sheetId="5" r:id="rId2"/>
+    <sheet name="searchResellerVat" sheetId="4" r:id="rId3"/>
+    <sheet name="addReseller" sheetId="2" r:id="rId4"/>
+    <sheet name="searchReseller" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>
@@ -109,6 +111,33 @@
   </si>
   <si>
     <t>&amp; brother's</t>
+  </si>
+  <si>
+    <t>Type-1</t>
+  </si>
+  <si>
+    <t>searchResellerVat</t>
+  </si>
+  <si>
+    <t>vatNumber</t>
+  </si>
+  <si>
+    <t>autoTestVat1</t>
+  </si>
+  <si>
+    <t>searchList</t>
+  </si>
+  <si>
+    <t>VAT Number</t>
+  </si>
+  <si>
+    <t>searchResellerID</t>
+  </si>
+  <si>
+    <t>Reseller ID</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -457,15 +486,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -492,6 +523,22 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -502,10 +549,108 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>10003</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,17 +735,55 @@
         <v>30</v>
       </c>
     </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/testdata/ResellerTests.xlsx
+++ b/resources/testdata/ResellerTests.xlsx
@@ -8,17 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
-    <sheet name="searchResellerID" sheetId="5" r:id="rId2"/>
-    <sheet name="searchResellerVat" sheetId="4" r:id="rId3"/>
-    <sheet name="addReseller" sheetId="2" r:id="rId4"/>
-    <sheet name="searchReseller" sheetId="3" r:id="rId5"/>
+    <sheet name="searchResellerInvalidID" sheetId="6" r:id="rId2"/>
+    <sheet name="searchResellerID" sheetId="5" r:id="rId3"/>
+    <sheet name="searchResellerVat" sheetId="4" r:id="rId4"/>
+    <sheet name="addReseller" sheetId="2" r:id="rId5"/>
+    <sheet name="searchReseller" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
   <si>
     <t>TCID</t>
   </si>
@@ -138,6 +139,15 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>searchResellerInvalidID</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>Query returned no results.</t>
   </si>
 </sst>
 </file>
@@ -486,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,6 +552,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -549,15 +567,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -573,8 +591,11 @@
       <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -585,10 +606,13 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>10003</v>
+        <v>-9444</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +641,7 @@
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>35</v>
@@ -633,11 +657,11 @@
       <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>34</v>
+      <c r="D2">
+        <v>10003</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -646,6 +670,55 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
@@ -778,7 +851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/resources/testdata/ResellerTests.xlsx
+++ b/resources/testdata/ResellerTests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -625,7 +625,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +658,7 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
@@ -860,6 +860,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/resources/testdata/ResellerTests.xlsx
+++ b/resources/testdata/ResellerTests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -569,7 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -624,11 +624,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -658,7 +661,7 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>10002</v>
+        <v>10000</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
@@ -674,10 +677,15 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -730,6 +738,8 @@
   <cols>
     <col min="4" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -856,7 +866,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
